--- a/data/clean/worldbank_data_brazil_clean.xlsx
+++ b/data/clean/worldbank_data_brazil_clean.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GDP per capita (current US$)</t>
+          <t>Natural Log of GDP per capita (current US$)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
